--- a/biology/Biologie cellulaire et moléculaire/Récepteur_kaïnate/Récepteur_kaïnate.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Récepteur_kaïnate/Récepteur_kaïnate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_ka%C3%AFnate</t>
+          <t>Récepteur_kaïnate</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les récepteurs kaïnate sont des récepteurs ionotropes qui réagissent aussi bien au glutamate, qui est leur ligand physiologique, qu'au kaïnate qui est un médicament isolé de l'algue rouge Digenea simplex. Le canal ionique qu'ils forment est perméable aux ions sodium et potassium. Ils forment un troisième groupe de récepteurs ionotropes au glutamate, les deux autres étant les récepteurs NMDA et les récepteurs AMPA. Ces trois types de récepteurs réagissent au glutamate, ils sont donc impliqués dans la neurotransmission excitatrice.
 Chaque sous-unité kaïnate est constituée d'un domaine N-terminal extracellulaire connecté à la première boucle extracellulaire (S1) et suivi d'un premier domaine transmembranaire (TMD1). TMD1 est relié au deuxième domaine transmembranaire (TMD2) par une première boucle intracellulaire. Ce deuxième domaine transmembranaire, plus court, a la particularité de plonger en biais dans la bicouche lipidique, ne proposant donc pas de "face extracellulaire". Une seconde boucle replonge en intracellulaire et relie le deuxième domaine transmembranaire au troisième domaine transmembranaire (TMD3). Enfin, le quatrième domaine transmembranaire est relié au précédent par une deuxième boucle extracellulaire; la sous-unité se termine alors par un domaine C-terminal faisant suite au quatrième domaine transmembranaire (TMD4). 
